--- a/SW_DOC/03_정전류 테스트/20221128_STEPUP_PWM 측정 결과.xlsx
+++ b/SW_DOC/03_정전류 테스트/20221128_STEPUP_PWM 측정 결과.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25930"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,14 +10,14 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D902DF-2B20-4BDD-9A0B-90631EF732E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E7059AB5-F3EA-47AD-9E44-8149C9CE2D7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{E7059AB5-F3EA-47AD-9E44-8149C9CE2D7F}"/>
   </bookViews>
   <sheets>
     <sheet name="타이머 100kHz" sheetId="1" r:id="rId1"/>
     <sheet name="타이머 200kHz" sheetId="2" r:id="rId2"/>
     <sheet name="타이머 400kHz" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,15 +40,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
   <si>
-    <t>타이머 CNT 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>측정 전압값(MIN)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>측정 전압값(MAX)</t>
+    <t>타이머 100khz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -64,19 +56,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이후 타이머 값을 증가할수록 전압값이 감소함</t>
+    <t>자극 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>타이머 100khz</t>
+    <t>타이머 CNT 값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>타이머 200khz</t>
+    <t>측정 전압값(MAX)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>타이머 400khz</t>
+    <t>측정 전압값(MIN)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,7 +84,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자극 시간</t>
+    <t>이후 타이머 값을 증가할수록 전압값이 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 200khz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 400khz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#0.####00&quot;us&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,16 +434,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -452,34 +446,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -494,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -509,19 +479,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -549,33 +513,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,7 +600,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -731,7 +668,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="l"/>
@@ -916,7 +853,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1578,7 +1515,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="184754128"/>
@@ -1647,7 +1584,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="184761616"/>
@@ -1688,7 +1625,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573453456"/>
@@ -1707,6 +1644,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="185208576"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1746,7 +1684,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1779,7 +1717,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1858,7 +1796,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1926,7 +1864,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="l"/>
@@ -2231,7 +2169,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -3373,7 +3311,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="666198592"/>
@@ -3442,7 +3380,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="666222720"/>
@@ -3483,7 +3421,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="748651376"/>
@@ -3502,6 +3440,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="748666768"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3541,7 +3480,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3574,7 +3513,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3653,7 +3592,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3721,7 +3660,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="l"/>
@@ -3984,7 +3923,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -4958,7 +4897,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="666206080"/>
@@ -5027,7 +4966,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="666211488"/>
@@ -5068,7 +5007,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="906895264"/>
@@ -5087,6 +5026,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="906890688"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5126,7 +5066,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5159,7 +5099,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5238,7 +5178,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5306,7 +5246,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="l"/>
@@ -5974,7 +5914,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="184754128"/>
@@ -6043,7 +5983,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="184761616"/>
@@ -6084,7 +6024,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="578454176"/>
@@ -6102,6 +6042,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="578456672"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6141,7 +6082,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6174,7 +6115,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6253,7 +6194,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6321,7 +6262,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="l"/>
@@ -6500,7 +6441,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -7279,7 +7220,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="666198592"/>
@@ -7348,7 +7289,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="666222720"/>
@@ -7389,7 +7330,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="760665536"/>
@@ -7407,6 +7348,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="581312608"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7446,7 +7388,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7479,7 +7421,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7558,7 +7500,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7626,7 +7568,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="l"/>
@@ -7784,7 +7726,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -8458,7 +8400,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="666206080"/>
@@ -8527,7 +8469,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="666211488"/>
@@ -8568,7 +8510,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="184272784"/>
@@ -8586,6 +8528,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="184270704"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8625,7 +8568,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8658,7 +8601,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8737,7 +8680,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8805,7 +8748,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="l"/>
@@ -9473,7 +9416,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="184754128"/>
@@ -9542,7 +9485,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="184761616"/>
@@ -9583,7 +9526,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="578454176"/>
@@ -9641,7 +9584,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9674,7 +9617,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9753,7 +9696,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9821,7 +9764,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="l"/>
@@ -9979,7 +9922,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -10653,7 +10596,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="666198592"/>
@@ -10722,7 +10665,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="666222720"/>
@@ -10763,7 +10706,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="760665536"/>
@@ -10821,7 +10764,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10854,7 +10797,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10933,7 +10876,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11001,7 +10944,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="l"/>
@@ -11150,7 +11093,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -11779,7 +11722,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="666206080"/>
@@ -11848,7 +11791,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="666211488"/>
@@ -11889,7 +11832,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="904310912"/>
@@ -11907,6 +11850,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="904314240"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -11946,7 +11890,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11979,7 +11923,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17731,7 +17675,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -18019,7 +17963,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -18033,137 +17977,137 @@
       <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="19" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="26.25">
       <c r="A2">
         <v>100000</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.25">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:19">
+      <c r="A5" s="7">
         <f>(1/$A$2)*$B5 *1000000</f>
         <v>0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>3.2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <f>$C5-$D5</f>
         <v>1.2000000000000002</v>
       </c>
@@ -18173,16 +18117,16 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>4</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>2.8</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <f>$I5-$J5</f>
         <v>1.2000000000000002</v>
       </c>
@@ -18192,13 +18136,13 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>0</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="2">
         <v>4</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="2">
         <v>2.8</v>
       </c>
       <c r="Q5" s="2">
@@ -18212,21 +18156,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:19">
+      <c r="A6" s="7">
         <f t="shared" ref="A5:A36" si="0">(1/$A$2)*$B6 *1000000</f>
         <v>10</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>8</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <f>$C6-$D6</f>
         <v>1.1999999999999993</v>
       </c>
@@ -18238,16 +18182,16 @@
         <f>$D6-$D5</f>
         <v>4.8</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>6</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <v>4.8</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <f t="shared" ref="K6:K36" si="1">$I6-$J6</f>
         <v>1.2000000000000002</v>
       </c>
@@ -18259,13 +18203,13 @@
         <f>$J6-$J5</f>
         <v>2</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>1</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="2">
         <v>6.8</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="2">
         <v>5.6</v>
       </c>
       <c r="Q6" s="2">
@@ -18281,21 +18225,21 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:19">
+      <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>12.8</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>11.6</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <f t="shared" ref="E7:E16" si="3">$C7-$D7</f>
         <v>1.2000000000000011</v>
       </c>
@@ -18307,16 +18251,16 @@
         <f t="shared" ref="G7:G16" si="5">$D7-$D6</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>7.6</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>6.4</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -18328,13 +18272,13 @@
         <f t="shared" ref="M7:M36" si="7">$J7-$J6</f>
         <v>1.6000000000000005</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>2</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="2">
         <v>7.6</v>
       </c>
       <c r="Q7" s="2">
@@ -18350,21 +18294,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:19">
+      <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>30.000000000000004</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>16.8</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>15.6</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <f>$C8-$D8</f>
         <v>1.2000000000000011</v>
       </c>
@@ -18376,16 +18320,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>3</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <v>8</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -18397,13 +18341,13 @@
         <f t="shared" si="7"/>
         <v>1.5999999999999996</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>3</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="2">
         <v>11.2</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="2">
         <v>10</v>
       </c>
       <c r="Q8" s="2">
@@ -18419,21 +18363,21 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:19">
+      <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>20.399999999999999</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>19.2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <f t="shared" si="3"/>
         <v>1.1999999999999993</v>
       </c>
@@ -18445,16 +18389,16 @@
         <f t="shared" si="5"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>4</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>11.2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <v>10</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -18466,13 +18410,13 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>4</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="2">
         <v>13.6</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="2">
         <v>12.4</v>
       </c>
       <c r="Q9" s="2">
@@ -18488,21 +18432,21 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:19">
+      <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>24.4</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>23.2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <f t="shared" si="3"/>
         <v>1.1999999999999993</v>
       </c>
@@ -18514,16 +18458,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>5</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <v>12.8</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <v>11.6</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000011</v>
       </c>
@@ -18535,13 +18479,13 @@
         <f t="shared" si="7"/>
         <v>1.5999999999999996</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>5</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="2">
         <v>15.6</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="2">
         <v>14.4</v>
       </c>
       <c r="Q10" s="2">
@@ -18557,21 +18501,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:19">
+      <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>60.000000000000007</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>28.4</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>27.2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <f t="shared" si="3"/>
         <v>1.1999999999999993</v>
       </c>
@@ -18583,16 +18527,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>6</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>14.4</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <v>13.2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000011</v>
       </c>
@@ -18604,13 +18548,13 @@
         <f t="shared" si="7"/>
         <v>1.5999999999999996</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>6</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="2">
         <v>16.399999999999999</v>
       </c>
       <c r="Q11" s="2">
@@ -18626,21 +18570,21 @@
         <v>1.9999999999999982</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="12" spans="1:19">
+      <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>70.000000000000014</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>32</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>30.8</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <f t="shared" si="3"/>
         <v>1.1999999999999993</v>
       </c>
@@ -18652,16 +18596,16 @@
         <f t="shared" si="5"/>
         <v>3.6000000000000014</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>7</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <v>15.2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -18673,13 +18617,13 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>7</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="2">
         <v>19.600000000000001</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="2">
         <v>18.399999999999999</v>
       </c>
       <c r="Q12" s="2">
@@ -18695,21 +18639,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="13" spans="1:19">
+      <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>36</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>34.799999999999997</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <f t="shared" si="3"/>
         <v>1.2000000000000028</v>
       </c>
@@ -18721,16 +18665,16 @@
         <f t="shared" si="5"/>
         <v>3.9999999999999964</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>8</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <v>18</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <v>16.8</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -18742,13 +18686,13 @@
         <f t="shared" si="7"/>
         <v>1.6000000000000014</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>8</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="2">
         <v>22</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="2">
         <v>20.8</v>
       </c>
       <c r="Q13" s="2">
@@ -18764,21 +18708,21 @@
         <v>2.4000000000000021</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="14" spans="1:19">
+      <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>40</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>38.799999999999997</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <f t="shared" si="3"/>
         <v>1.2000000000000028</v>
       </c>
@@ -18790,16 +18734,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>9</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <v>19.600000000000001</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -18811,13 +18755,13 @@
         <f t="shared" si="7"/>
         <v>1.5999999999999979</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <v>9</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="2">
         <v>24</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="2">
         <v>22.8</v>
       </c>
       <c r="Q14" s="2">
@@ -18833,21 +18777,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="15" spans="1:19">
+      <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>43.6</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>42.4</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <f t="shared" si="3"/>
         <v>1.2000000000000028</v>
       </c>
@@ -18859,16 +18803,16 @@
         <f t="shared" si="5"/>
         <v>3.6000000000000014</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>10</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <v>20.8</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
         <v>19.600000000000001</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -18880,13 +18824,13 @@
         <f t="shared" si="7"/>
         <v>1.2000000000000028</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <v>10</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="2">
         <v>26</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="2">
         <v>24.8</v>
       </c>
       <c r="Q15" s="2">
@@ -18902,21 +18846,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+    <row r="16" spans="1:19">
+      <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>47.2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>46.4</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>0.80000000000000426</v>
       </c>
@@ -18928,16 +18872,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>11</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2">
         <v>22.4</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="2">
         <v>21.2</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -18949,13 +18893,13 @@
         <f t="shared" si="7"/>
         <v>1.5999999999999979</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <v>11</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="2">
         <v>28</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="2">
         <v>26.8</v>
       </c>
       <c r="Q16" s="2">
@@ -18971,29 +18915,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+    <row r="17" spans="1:19">
+      <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>120.00000000000001</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="6">
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="5">
         <v>12</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="2">
         <v>24</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="2">
         <v>22.8</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -19005,13 +18949,13 @@
         <f t="shared" si="7"/>
         <v>1.6000000000000014</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <v>12</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="2">
         <v>30</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="2">
         <v>28.8</v>
       </c>
       <c r="Q17" s="2">
@@ -19027,29 +18971,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+    <row r="18" spans="1:19">
+      <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>130.00000000000003</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="6">
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="5">
         <v>13</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="2">
         <v>25.6</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="2">
         <v>24.4</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -19061,13 +19005,13 @@
         <f t="shared" si="7"/>
         <v>1.5999999999999979</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <v>13</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="2">
         <v>32</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="2">
         <v>30.8</v>
       </c>
       <c r="Q18" s="2">
@@ -19083,29 +19027,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+    <row r="19" spans="1:19">
+      <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>140.00000000000003</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="6">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="5">
         <v>14</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <v>26.8</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="2">
         <v>25.6</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -19117,13 +19061,13 @@
         <f t="shared" si="7"/>
         <v>1.2000000000000028</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <v>14</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="2">
         <v>34</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="2">
         <v>32.4</v>
       </c>
       <c r="Q19" s="2">
@@ -19139,29 +19083,29 @@
         <v>1.5999999999999979</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+    <row r="20" spans="1:19">
+      <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="6">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="5">
         <v>15</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <v>28.4</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="2">
         <v>27.2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -19173,7 +19117,7 @@
         <f t="shared" si="7"/>
         <v>1.5999999999999979</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <v>15</v>
       </c>
       <c r="O20" s="2">
@@ -19195,29 +19139,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+    <row r="21" spans="1:19">
+      <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>16</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="6">
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="5">
         <v>16</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <v>30</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <v>28.8</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -19229,7 +19173,7 @@
         <f t="shared" si="7"/>
         <v>1.6000000000000014</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="5">
         <v>16</v>
       </c>
       <c r="O21" s="2">
@@ -19251,29 +19195,29 @@
         <v>1.6000000000000014</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+    <row r="22" spans="1:19">
+      <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="6">
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="5">
         <v>17</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="2">
         <v>31.2</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="2">
         <v>30</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -19285,7 +19229,7 @@
         <f t="shared" si="7"/>
         <v>1.1999999999999993</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <v>17</v>
       </c>
       <c r="O22" s="2">
@@ -19307,29 +19251,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+    <row r="23" spans="1:19">
+      <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="6">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="5">
         <v>18</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2">
         <v>32.799999999999997</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="2">
         <v>31.6</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999957</v>
       </c>
@@ -19341,7 +19285,7 @@
         <f t="shared" si="7"/>
         <v>1.6000000000000014</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <v>18</v>
       </c>
       <c r="O23" s="2">
@@ -19363,29 +19307,29 @@
         <v>1.6000000000000014</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+    <row r="24" spans="1:19">
+      <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="6">
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="5">
         <v>19</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="2">
         <v>34</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="2">
         <v>32.4</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="2">
         <f t="shared" si="1"/>
         <v>1.6000000000000014</v>
       </c>
@@ -19397,7 +19341,7 @@
         <f t="shared" si="7"/>
         <v>0.79999999999999716</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
         <v>19</v>
       </c>
       <c r="O24" s="2">
@@ -19419,29 +19363,29 @@
         <v>1.6000000000000014</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+    <row r="25" spans="1:19">
+      <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>20</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="6">
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="5">
         <v>20</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="2">
         <v>35.200000000000003</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="2">
         <v>34</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -19453,7 +19397,7 @@
         <f t="shared" si="7"/>
         <v>1.6000000000000014</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <v>20</v>
       </c>
       <c r="O25" s="2">
@@ -19475,29 +19419,29 @@
         <v>1.5999999999999943</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+    <row r="26" spans="1:19">
+      <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="6">
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="5">
         <v>21</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="2">
         <v>36</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="2">
         <v>34.799999999999997</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -19509,7 +19453,7 @@
         <f t="shared" si="7"/>
         <v>0.79999999999999716</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="5">
         <v>21</v>
       </c>
       <c r="O26" s="2">
@@ -19531,29 +19475,29 @@
         <v>1.6000000000000014</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+    <row r="27" spans="1:19">
+      <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="6">
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="5">
         <v>22</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="2">
         <v>37.200000000000003</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="2">
         <v>36</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -19565,7 +19509,7 @@
         <f t="shared" si="7"/>
         <v>1.2000000000000028</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="5">
         <v>22</v>
       </c>
       <c r="O27" s="2">
@@ -19587,29 +19531,29 @@
         <v>1.2000000000000028</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+    <row r="28" spans="1:19">
+      <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="6">
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="5">
         <v>23</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="2">
         <v>38.4</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="2">
         <v>37.200000000000003</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999957</v>
       </c>
@@ -19621,7 +19565,7 @@
         <f t="shared" si="7"/>
         <v>1.2000000000000028</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="5">
         <v>23</v>
       </c>
       <c r="O28" s="2">
@@ -19643,29 +19587,29 @@
         <v>1.6000000000000014</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+    <row r="29" spans="1:19">
+      <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>240.00000000000003</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="6">
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="5">
         <v>24</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="2">
         <v>39.200000000000003</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="2">
         <v>38</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -19677,7 +19621,7 @@
         <f t="shared" si="7"/>
         <v>0.79999999999999716</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="5">
         <v>24</v>
       </c>
       <c r="O29" s="2">
@@ -19699,29 +19643,29 @@
         <v>1.1999999999999957</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+    <row r="30" spans="1:19">
+      <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>25</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="6">
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="5">
         <v>25</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="2">
         <v>40</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="2">
         <v>38.799999999999997</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="2">
         <f>$I30-$J30</f>
         <v>1.2000000000000028</v>
       </c>
@@ -19733,38 +19677,38 @@
         <f t="shared" si="7"/>
         <v>0.79999999999999716</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="5">
         <v>25</v>
       </c>
-      <c r="O30" s="20"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="22"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+    <row r="31" spans="1:19">
+      <c r="A31" s="7">
         <f t="shared" si="0"/>
         <v>260.00000000000006</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>26</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="6">
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="5">
         <v>26</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="2">
         <v>40.799999999999997</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="2">
         <v>39.200000000000003</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="2">
         <f t="shared" si="1"/>
         <v>1.5999999999999943</v>
       </c>
@@ -19776,38 +19720,38 @@
         <f t="shared" si="7"/>
         <v>0.40000000000000568</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="5">
         <v>26</v>
       </c>
-      <c r="O31" s="23"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="25"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="15"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+    <row r="32" spans="1:19">
+      <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>27</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="6">
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="5">
         <v>27</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="2">
         <v>41.2</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="2">
         <v>40</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -19819,38 +19763,38 @@
         <f t="shared" si="7"/>
         <v>0.79999999999999716</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="5">
         <v>27</v>
       </c>
-      <c r="O32" s="23"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="25"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="15"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+    <row r="33" spans="1:19">
+      <c r="A33" s="7">
         <f t="shared" si="0"/>
         <v>280.00000000000006</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>28</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="6">
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="5">
         <v>28</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="2">
         <v>41.6</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="2">
         <v>40.4</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -19862,38 +19806,38 @@
         <f t="shared" si="7"/>
         <v>0.39999999999999858</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="5">
         <v>28</v>
       </c>
-      <c r="O33" s="23"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="25"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="15"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+    <row r="34" spans="1:19">
+      <c r="A34" s="7">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>29</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="6">
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="5">
         <v>29</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="2">
         <v>41.6</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="2">
         <v>40.4</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -19905,38 +19849,38 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="5">
         <v>29</v>
       </c>
-      <c r="O34" s="23"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="25"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="15"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+    <row r="35" spans="1:19">
+      <c r="A35" s="7">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>30</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="6">
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="5">
         <v>30</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="2">
         <v>41.2</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="2">
         <v>40</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -19948,38 +19892,38 @@
         <f t="shared" si="7"/>
         <v>-0.39999999999999858</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="5">
         <v>30</v>
       </c>
-      <c r="O35" s="23"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="25"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="15"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+    <row r="36" spans="1:19">
+      <c r="A36" s="7">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>31</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="6">
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="5">
         <v>31</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="2">
         <v>40.799999999999997</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="2">
         <v>39.6</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999957</v>
       </c>
@@ -19991,42 +19935,42 @@
         <f t="shared" si="7"/>
         <v>-0.39999999999999858</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="5">
         <v>31</v>
       </c>
-      <c r="O36" s="26"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="28"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="18"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H37" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+    <row r="37" spans="1:19">
+      <c r="H37" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
+    <row r="38" spans="1:19">
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="H37:J38"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="N3:S3"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C17:G36"/>
     <mergeCell ref="O30:S36"/>
-    <mergeCell ref="H37:J38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20042,137 +19986,137 @@
       <selection activeCell="T81" sqref="T81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="19" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="26.25">
       <c r="A2">
         <v>200000</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.25">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:19">
+      <c r="A5" s="7">
         <f t="shared" ref="A5:A29" si="0">(1/$A$2)*$B5 *1000000</f>
         <v>0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>3.2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <f>$C5-$D5</f>
         <v>1.2000000000000002</v>
       </c>
@@ -20182,16 +20126,16 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>4</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>2.8</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <f>$I5-$J5</f>
         <v>1.2000000000000002</v>
       </c>
@@ -20201,13 +20145,13 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>0</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="2">
         <v>4</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="2">
         <v>2.8</v>
       </c>
       <c r="Q5" s="2">
@@ -20221,21 +20165,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:19">
+      <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>9.6</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>8.4</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <f t="shared" ref="E6:E16" si="1">$C6-$D6</f>
         <v>1.1999999999999993</v>
       </c>
@@ -20247,16 +20191,16 @@
         <f>$D6-$D5</f>
         <v>5.2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>6.8</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <v>5.6</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <f t="shared" ref="K6:K29" si="2">$I6-$J6</f>
         <v>1.2000000000000002</v>
       </c>
@@ -20268,13 +20212,13 @@
         <f>$J6-$J5</f>
         <v>2.8</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>1</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="2">
         <v>7.6</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="2">
         <v>6.4</v>
       </c>
       <c r="Q6" s="2">
@@ -20290,21 +20234,21 @@
         <v>3.6000000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:19">
+      <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>13.2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>12</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -20316,16 +20260,16 @@
         <f t="shared" ref="G7:G16" si="5">$D7-$D6</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>8</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -20337,13 +20281,13 @@
         <f t="shared" ref="M7:M29" si="7">$J7-$J6</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>2</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="2">
         <v>10.4</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="2">
         <v>9.1999999999999993</v>
       </c>
       <c r="Q7" s="2">
@@ -20359,21 +20303,21 @@
         <v>2.7999999999999989</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:19">
+      <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>15.000000000000002</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>17.2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>16</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -20385,16 +20329,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>3</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <v>11.2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <v>10</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -20406,13 +20350,13 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>3</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="2">
         <v>13.2</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="2">
         <v>12</v>
       </c>
       <c r="Q8" s="2">
@@ -20428,21 +20372,21 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:19">
+      <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>20.8</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>19.600000000000001</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -20454,16 +20398,16 @@
         <f t="shared" si="5"/>
         <v>3.6000000000000014</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>4</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>13.6</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <v>12.4</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -20475,13 +20419,13 @@
         <f t="shared" si="7"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>4</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="2">
         <v>16</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="2">
         <v>14.8</v>
       </c>
       <c r="Q9" s="2">
@@ -20497,21 +20441,21 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:19">
+      <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>24.8</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>23.6</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -20523,16 +20467,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>5</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <v>15.6</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <v>14.4</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -20544,13 +20488,13 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>5</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="2">
         <v>17.2</v>
       </c>
       <c r="Q10" s="2">
@@ -20566,21 +20510,21 @@
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:19">
+      <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>30.000000000000004</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>29.2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>28</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -20592,16 +20536,16 @@
         <f t="shared" si="5"/>
         <v>4.3999999999999986</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>6</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>18</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <v>16.8</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -20613,13 +20557,13 @@
         <f t="shared" si="7"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>6</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="2">
         <v>21.2</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="2">
         <v>20</v>
       </c>
       <c r="Q11" s="2">
@@ -20635,21 +20579,21 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="12" spans="1:19">
+      <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>35.000000000000007</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>33.200000000000003</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>32</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -20661,16 +20605,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>7</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <v>20</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <v>18.8</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -20682,13 +20626,13 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>7</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="2">
         <v>24</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="2">
         <v>22.8</v>
       </c>
       <c r="Q12" s="2">
@@ -20704,21 +20648,21 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="13" spans="1:19">
+      <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>37.200000000000003</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>36</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -20730,16 +20674,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>8</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <v>22</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <v>20.8</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -20751,13 +20695,13 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>8</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="2">
         <v>26.4</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="2">
         <v>25.2</v>
       </c>
       <c r="Q13" s="2">
@@ -20773,21 +20717,21 @@
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="14" spans="1:19">
+      <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>41.2</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>40</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -20799,16 +20743,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>9</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <v>24.4</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="2">
         <v>22.8</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <f t="shared" si="2"/>
         <v>1.5999999999999979</v>
       </c>
@@ -20820,13 +20764,13 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <v>9</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="2">
         <v>29.2</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="2">
         <v>28</v>
       </c>
       <c r="Q14" s="2">
@@ -20842,21 +20786,21 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="15" spans="1:19">
+      <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>45.2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>44</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -20868,16 +20812,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>10</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <v>26.4</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
         <v>25.2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -20889,13 +20833,13 @@
         <f t="shared" si="7"/>
         <v>2.3999999999999986</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <v>10</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="2">
         <v>31.6</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="2">
         <v>30.4</v>
       </c>
       <c r="Q15" s="2">
@@ -20911,21 +20855,21 @@
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+    <row r="16" spans="1:19">
+      <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>49.2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>48</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -20937,16 +20881,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>11</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2">
         <v>28.4</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="2">
         <v>27.2</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -20958,13 +20902,13 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <v>11</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="2">
         <v>34</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="2">
         <v>32.799999999999997</v>
       </c>
       <c r="Q16" s="2">
@@ -20980,29 +20924,29 @@
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+    <row r="17" spans="1:19">
+      <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>60.000000000000007</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="6">
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="5">
         <v>12</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="2">
         <v>30.4</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="2">
         <v>29.2</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -21014,13 +20958,13 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <v>12</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="2">
         <v>36.4</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="2">
         <v>35.200000000000003</v>
       </c>
       <c r="Q17" s="2">
@@ -21036,29 +20980,29 @@
         <v>2.4000000000000057</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+    <row r="18" spans="1:19">
+      <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>65.000000000000014</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="6">
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="5">
         <v>13</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="2">
         <v>32</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="2">
         <v>30.8</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -21070,13 +21014,13 @@
         <f t="shared" si="7"/>
         <v>1.6000000000000014</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <v>13</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="2">
         <v>38.799999999999997</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="2">
         <v>37.6</v>
       </c>
       <c r="Q18" s="2">
@@ -21092,29 +21036,29 @@
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+    <row r="19" spans="1:19">
+      <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>70.000000000000014</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="6">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="5">
         <v>14</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <v>34</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="2">
         <v>32.799999999999997</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="2">
         <f t="shared" si="2"/>
         <v>1.2000000000000028</v>
       </c>
@@ -21126,13 +21070,13 @@
         <f t="shared" si="7"/>
         <v>1.9999999999999964</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <v>14</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="2">
         <v>41.2</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="2">
         <v>40</v>
       </c>
       <c r="Q19" s="2">
@@ -21148,29 +21092,29 @@
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+    <row r="20" spans="1:19">
+      <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="6">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="5">
         <v>15</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <v>36</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="2">
         <v>34.799999999999997</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="2">
         <f t="shared" si="2"/>
         <v>1.2000000000000028</v>
       </c>
@@ -21182,7 +21126,7 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <v>15</v>
       </c>
       <c r="O20" s="2">
@@ -21204,29 +21148,29 @@
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+    <row r="21" spans="1:19">
+      <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>16</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="6">
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="5">
         <v>16</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <v>37.6</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <v>36.4</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="2">
         <f t="shared" si="2"/>
         <v>1.2000000000000028</v>
       </c>
@@ -21238,7 +21182,7 @@
         <f t="shared" si="7"/>
         <v>1.6000000000000014</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="5">
         <v>16</v>
       </c>
       <c r="O21" s="2">
@@ -21260,29 +21204,29 @@
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+    <row r="22" spans="1:19">
+      <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="6">
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="5">
         <v>17</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="2">
         <v>39.6</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="2">
         <v>38.4</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="2">
         <f t="shared" si="2"/>
         <v>1.2000000000000028</v>
       </c>
@@ -21294,7 +21238,7 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <v>17</v>
       </c>
       <c r="O22" s="2">
@@ -21316,29 +21260,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+    <row r="23" spans="1:19">
+      <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="6">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="5">
         <v>18</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2">
         <v>41.2</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="2">
         <v>40</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="2">
         <f t="shared" si="2"/>
         <v>1.2000000000000028</v>
       </c>
@@ -21350,38 +21294,38 @@
         <f t="shared" si="7"/>
         <v>1.6000000000000014</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <v>18</v>
       </c>
-      <c r="O23" s="20"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="22"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+    <row r="24" spans="1:19">
+      <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="6">
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="5">
         <v>19</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="2">
         <v>42.8</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="2">
         <v>41.6</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999957</v>
       </c>
@@ -21393,38 +21337,38 @@
         <f t="shared" si="7"/>
         <v>1.6000000000000014</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
         <v>19</v>
       </c>
-      <c r="O24" s="23"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="25"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="15"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+    <row r="25" spans="1:19">
+      <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>20</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="6">
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="5">
         <v>20</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="2">
         <v>44.4</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="2">
         <v>43.2</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999957</v>
       </c>
@@ -21436,38 +21380,38 @@
         <f t="shared" si="7"/>
         <v>1.6000000000000014</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <v>20</v>
       </c>
-      <c r="O25" s="23"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="25"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="15"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+    <row r="26" spans="1:19">
+      <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="6">
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="5">
         <v>21</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="2">
         <v>46</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="2">
         <v>44.8</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="2">
         <f t="shared" si="2"/>
         <v>1.2000000000000028</v>
       </c>
@@ -21479,38 +21423,38 @@
         <f t="shared" si="7"/>
         <v>1.5999999999999943</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="5">
         <v>21</v>
       </c>
-      <c r="O26" s="23"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="25"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="15"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+    <row r="27" spans="1:19">
+      <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="6">
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="5">
         <v>22</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="2">
         <v>47.6</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="2">
         <v>46</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="2">
         <f t="shared" si="2"/>
         <v>1.6000000000000014</v>
       </c>
@@ -21522,38 +21466,38 @@
         <f t="shared" si="7"/>
         <v>1.2000000000000028</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="5">
         <v>22</v>
       </c>
-      <c r="O27" s="23"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="25"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="15"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+    <row r="28" spans="1:19">
+      <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="6">
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="5">
         <v>23</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="2">
         <v>48.8</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="2">
         <v>47.6</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999957</v>
       </c>
@@ -21565,38 +21509,38 @@
         <f t="shared" si="7"/>
         <v>1.6000000000000014</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="5">
         <v>23</v>
       </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="25"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="15"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+    <row r="29" spans="1:19">
+      <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>120.00000000000001</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="6">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="5">
         <v>24</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="2">
         <v>49.6</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="2">
         <v>48.4</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="2">
         <f t="shared" si="2"/>
         <v>1.2000000000000028</v>
       </c>
@@ -21608,14 +21552,14 @@
         <f t="shared" si="7"/>
         <v>0.79999999999999716</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="5">
         <v>24</v>
       </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="28"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -21640,137 +21584,137 @@
       <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="19" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="26.25">
       <c r="A2">
         <v>400000</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.25">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="33"/>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:19">
+      <c r="A5" s="7">
         <f>(1/$A$2)*$B5 *1000000</f>
         <v>0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>3.2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <f>$C5-$D5</f>
         <v>1.2000000000000002</v>
       </c>
@@ -21780,16 +21724,16 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>4</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>2.8</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <f>$I5-$J5</f>
         <v>1.2000000000000002</v>
       </c>
@@ -21799,41 +21743,41 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>0</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="2">
         <v>4</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="2">
         <v>2.8</v>
       </c>
       <c r="Q5" s="2">
         <f>$O5-$P5</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="6">
         <v>0</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:19">
+      <c r="A6" s="7">
         <f t="shared" ref="A6:A22" si="0">(1/$A$2)*$B6 *1000000</f>
         <v>2.5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>9.6</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>8.4</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <f t="shared" ref="E6:E16" si="1">$C6-$D6</f>
         <v>1.1999999999999993</v>
       </c>
@@ -21845,16 +21789,16 @@
         <f>$D6-$D5</f>
         <v>5.2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>8</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <v>6.4</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <f t="shared" ref="K6:K22" si="2">$I6-$J6</f>
         <v>1.5999999999999996</v>
       </c>
@@ -21866,43 +21810,43 @@
         <f>$J6-$J5</f>
         <v>3.6000000000000005</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>1</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="2">
         <v>8.4</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="2">
         <v>7.2</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ref="Q6:Q19" si="3">$O6-$P6</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="6">
         <f>$O6-$O5</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="6">
         <f>$P6-$P5</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:19">
+      <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>13.6</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>12</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>1.5999999999999996</v>
       </c>
@@ -21914,16 +21858,16 @@
         <f t="shared" ref="G7:G16" si="5">$D7-$D6</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>10.4</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <f t="shared" si="2"/>
         <v>1.2000000000000011</v>
       </c>
@@ -21935,43 +21879,43 @@
         <f t="shared" ref="M7:M22" si="7">$J7-$J6</f>
         <v>2.7999999999999989</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>2</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="2">
         <v>11.6</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="2">
         <v>10.4</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="3"/>
         <v>1.1999999999999993</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="6">
         <f t="shared" ref="R7:R19" si="8">$O7-$O6</f>
         <v>3.1999999999999993</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="6">
         <f t="shared" ref="S7:S19" si="9">$P7-$P6</f>
         <v>3.2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:19">
+      <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>7.5000000000000009</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>17.2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>16</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -21983,16 +21927,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>3</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <v>13.2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <v>12</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -22004,43 +21948,43 @@
         <f t="shared" si="7"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>3</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="2">
         <v>14.8</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="2">
         <v>13.6</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="3"/>
         <v>1.2000000000000011</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="6">
         <f t="shared" si="8"/>
         <v>3.2000000000000011</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="6">
         <f t="shared" si="9"/>
         <v>3.1999999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:19">
+      <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>21.2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
@@ -22052,16 +21996,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>4</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>16</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <v>14.8</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -22073,43 +22017,43 @@
         <f t="shared" si="7"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>4</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="2">
         <v>18</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="2">
         <v>16.8</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="3"/>
         <v>1.1999999999999993</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="6">
         <f t="shared" si="8"/>
         <v>3.1999999999999993</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="6">
         <f t="shared" si="9"/>
         <v>3.2000000000000011</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:19">
+      <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>25.6</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>24.4</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -22121,16 +22065,16 @@
         <f t="shared" si="5"/>
         <v>4.3999999999999986</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>5</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <v>18.8</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -22142,43 +22086,43 @@
         <f t="shared" si="7"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>5</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="2">
         <v>21.2</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="2">
         <v>20</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="3"/>
         <v>1.1999999999999993</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="6">
         <f t="shared" si="8"/>
         <v>3.1999999999999993</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="6">
         <f t="shared" si="9"/>
         <v>3.1999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:19">
+      <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>15.000000000000002</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>29.6</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>28.4</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -22190,16 +22134,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>6</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>21.2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <v>20</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -22211,43 +22155,43 @@
         <f t="shared" si="7"/>
         <v>2.3999999999999986</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>6</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="2">
         <v>24.4</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="2">
         <v>23.2</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="3"/>
         <v>1.1999999999999993</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="6">
         <f t="shared" si="8"/>
         <v>3.1999999999999993</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="6">
         <f t="shared" si="9"/>
         <v>3.1999999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="12" spans="1:19">
+      <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>17.500000000000004</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>34</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>32.4</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>1.6000000000000014</v>
       </c>
@@ -22259,16 +22203,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>7</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <v>24</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <v>22.8</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -22280,43 +22224,43 @@
         <f t="shared" si="7"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>7</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="2">
         <v>27.6</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="2">
         <v>26.4</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="3"/>
         <v>1.2000000000000028</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="6">
         <f t="shared" si="8"/>
         <v>3.2000000000000028</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="6">
         <f t="shared" si="9"/>
         <v>3.1999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="13" spans="1:19">
+      <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>38</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>36.799999999999997</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -22328,16 +22272,16 @@
         <f t="shared" si="5"/>
         <v>4.3999999999999986</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>8</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <v>26.8</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <v>25.6</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -22349,43 +22293,43 @@
         <f t="shared" si="7"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>8</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="2">
         <v>30.4</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="2">
         <v>29.2</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="3"/>
         <v>1.1999999999999993</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="6">
         <f t="shared" si="8"/>
         <v>2.7999999999999972</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="6">
         <f t="shared" si="9"/>
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="14" spans="1:19">
+      <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>42</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>40.799999999999997</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -22397,16 +22341,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>9</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <v>29.2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="2">
         <v>28</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -22418,43 +22362,43 @@
         <f t="shared" si="7"/>
         <v>2.3999999999999986</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <v>9</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="2">
         <v>33.6</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="2">
         <v>32.4</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="3"/>
         <v>1.2000000000000028</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="6">
         <f t="shared" si="8"/>
         <v>3.2000000000000028</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="6">
         <f t="shared" si="9"/>
         <v>3.1999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="15" spans="1:19">
+      <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>46</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>44.8</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -22466,16 +22410,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>10</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <v>32</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
         <v>30.8</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999993</v>
       </c>
@@ -22487,43 +22431,43 @@
         <f t="shared" si="7"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <v>10</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="2">
         <v>36.799999999999997</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="2">
         <v>35.6</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="3"/>
         <v>1.1999999999999957</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="6">
         <f t="shared" si="8"/>
         <v>3.1999999999999957</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="6">
         <f t="shared" si="9"/>
         <v>3.2000000000000028</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+    <row r="16" spans="1:19">
+      <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>50</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>48.8</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
@@ -22535,16 +22479,16 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>11</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2">
         <v>34.4</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="2">
         <v>32.200000000000003</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="2">
         <f t="shared" si="2"/>
         <v>2.1999999999999957</v>
       </c>
@@ -22556,51 +22500,51 @@
         <f t="shared" si="7"/>
         <v>1.4000000000000021</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <v>11</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="2">
         <v>40.799999999999997</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="2">
         <v>38.4</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="3"/>
         <v>2.3999999999999986</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="6">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="6">
         <f t="shared" si="9"/>
         <v>2.7999999999999972</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+    <row r="17" spans="1:19">
+      <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>30.000000000000004</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="6">
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="5">
         <v>12</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="2">
         <v>36.799999999999997</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="2">
         <v>35.6</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999957</v>
       </c>
@@ -22612,51 +22556,51 @@
         <f t="shared" si="7"/>
         <v>3.3999999999999986</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <v>12</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="2">
         <v>43.2</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="2">
         <v>41.6</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="3"/>
         <v>1.6000000000000014</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="6">
         <f t="shared" si="8"/>
         <v>2.4000000000000057</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="6">
         <f t="shared" si="9"/>
         <v>3.2000000000000028</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+    <row r="18" spans="1:19">
+      <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>32.500000000000007</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="6">
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="5">
         <v>13</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="2">
         <v>39.200000000000003</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="2">
         <v>38</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="2">
         <f t="shared" si="2"/>
         <v>1.2000000000000028</v>
       </c>
@@ -22668,51 +22612,51 @@
         <f t="shared" si="7"/>
         <v>2.3999999999999986</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <v>13</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="2">
         <v>46.4</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="2">
         <v>44.8</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="3"/>
         <v>1.6000000000000014</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="6">
         <f t="shared" si="8"/>
         <v>3.1999999999999957</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="6">
         <f t="shared" si="9"/>
         <v>3.1999999999999957</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+    <row r="19" spans="1:19">
+      <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>35.000000000000007</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="6">
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="5">
         <v>14</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <v>41.6</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="2">
         <v>40.4</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="2">
         <f t="shared" si="2"/>
         <v>1.2000000000000028</v>
       </c>
@@ -22724,51 +22668,51 @@
         <f t="shared" si="7"/>
         <v>2.3999999999999986</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <v>14</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="2">
         <v>49.6</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="2">
         <v>47.2</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="3"/>
         <v>2.3999999999999986</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="6">
         <f t="shared" si="8"/>
         <v>3.2000000000000028</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="6">
         <f t="shared" si="9"/>
         <v>2.4000000000000057</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+    <row r="20" spans="1:19">
+      <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="6">
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="5">
         <v>15</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <v>44</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="2">
         <v>42.8</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="2">
         <f t="shared" si="2"/>
         <v>1.2000000000000028</v>
       </c>
@@ -22780,38 +22724,38 @@
         <f t="shared" si="7"/>
         <v>2.3999999999999986</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <v>15</v>
       </c>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="36"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="24"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+    <row r="21" spans="1:19">
+      <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>16</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="6">
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="5">
         <v>16</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <v>46</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <v>44.8</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="2">
         <f t="shared" si="2"/>
         <v>1.2000000000000028</v>
       </c>
@@ -22823,38 +22767,38 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="5">
         <v>16</v>
       </c>
-      <c r="O21" s="37"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="39"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="27"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+    <row r="22" spans="1:19">
+      <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="6">
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="5">
         <v>17</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="2">
         <v>48.4</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="2">
         <v>47.2</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="2">
         <f t="shared" si="2"/>
         <v>1.1999999999999957</v>
       </c>
@@ -22866,14 +22810,14 @@
         <f t="shared" si="7"/>
         <v>2.4000000000000057</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <v>17</v>
       </c>
-      <c r="O22" s="40"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="42"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
